--- a/medicine/Psychotrope/Caves_Byrrh/Caves_Byrrh.xlsx
+++ b/medicine/Psychotrope/Caves_Byrrh/Caves_Byrrh.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les caves Byrrh sont des installations agricoles, industrielles et commerciales situées à Thuir, dans les Pyrénées-Orientales, en France. Elles ont été bâties à partir du XIXe siècle pour la fabrication du Byrrh. En 2020, une partie des installations, y compris des foudres et des cuves, est inscrite monument historique. Elles sont réputées pour « le plus grand foudre en chêne du monde ».
 </t>
@@ -511,9 +523,11 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les caves Byrrh sont situées dans le secteur nord de la commune de Thuir, au carrefour du Boulevard Violet et de l'avenue du docteur François Ecoiffier. Juste derrière au nord-est se trouve la Villa Palauda et son parc[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les caves Byrrh sont situées dans le secteur nord de la commune de Thuir, au carrefour du Boulevard Violet et de l'avenue du docteur François Ecoiffier. Juste derrière au nord-est se trouve la Villa Palauda et son parc.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Installations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Depuis 2011, les annexes 3, 7 et 7bis sont ouvertes à la visite après une cession de l'entreprise Pernod-Ricard à la Communauté de communes des Aspres.
 L'annexe 3 comprend l'office de tourisme de Thuir, trois cuves en béton ainsi que jusqu'à récemment une collection d'affiche publicitaire datant de 1903.
- L’annexe 7 est une cave couverte d’une charpente métallique. Cette cave contient 70 foudres de chênes, prolongée par l’annexe 7 bis, bâtiment contenant une cuve de 10 000 hl réalisée de 1935 à 1950, assemblée par la tonnellerie Fruhinshcoltz de Nancy, la plus grande cuve en chêne du monde au moment de sa construction[2].
+ L’annexe 7 est une cave couverte d’une charpente métallique. Cette cave contient 70 foudres de chênes, prolongée par l’annexe 7 bis, bâtiment contenant une cuve de 10 000 hl réalisée de 1935 à 1950, assemblée par la tonnellerie Fruhinshcoltz de Nancy, la plus grande cuve en chêne du monde au moment de sa construction.
 Le reste des caves Byrrh est encore utilisé par Pernod-Ricard afin de produire différents alcools.
 </t>
         </is>
@@ -576,9 +592,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un feu de toiture détruit une partie des installations dans la nuit du 9 au 10 mai 2022, mais ne cause aucun dommage aux cuves historiques[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un feu de toiture détruit une partie des installations dans la nuit du 9 au 10 mai 2022, mais ne cause aucun dommage aux cuves historiques.
 </t>
         </is>
       </c>
